--- a/input/denom特化統整表.xlsx
+++ b/input/denom特化統整表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\min_bet.ts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656920C1-F07F-4CF2-9961-0E3B8F1D6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0798AF5-F48F-4867-97A2-2FC42B45D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,462 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LiawSam</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{5E1C614E-20F5-496E-8933-EA65E42E4ED8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">其實是 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Normal + </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>預設</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{A607E979-CD24-4C4E-A190-5622B6208D57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FUNKY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>沒提供設定
+當作Normal處理</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{F729447F-C5D0-4FC1-AD14-473C7E54621F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跑路了
+當作Normal處理</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C137" authorId="0" shapeId="0" xr:uid="{0784E2F6-83B4-49BB-96AC-6A5CF50EE58B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coin size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>所以填入一般設定就可以</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J137" authorId="0" shapeId="0" xr:uid="{0055F155-246F-46A8-97CA-18C9945DA5AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LiawSam:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>使用</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coin size</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>所以填入一般設定就可以</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K137" authorId="0" shapeId="0" xr:uid="{9CD224D0-3FC9-4171-8C8C-37A8DA620CE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coin size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>所以填入一般設定就可以</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C138" authorId="0" shapeId="0" xr:uid="{981CB590-F092-4098-80E4-5A49F4D6883C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coin size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>所以填入一般設定就可以</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J138" authorId="0" shapeId="0" xr:uid="{CA001B51-91E1-4EFE-AB11-DD79D99DB8CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coin size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>所以填入一般設定就可以</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K142" authorId="0" shapeId="0" xr:uid="{E5AE8B6C-848E-44C3-9A46-303E51170462}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>只有</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>且預設1:1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="182">
   <si>
     <t>DC</t>
   </si>
@@ -98,9 +552,6 @@
     <t>OCMSMUL</t>
   </si>
   <si>
-    <t>VND2預設為1:1</t>
-  </si>
-  <si>
     <t>BLUEZONE</t>
   </si>
   <si>
@@ -570,13 +1021,25 @@
   </si>
   <si>
     <t>1688</t>
+  </si>
+  <si>
+    <t>AOA_Hall/Leo/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VND2預設為1:1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal + 預設1:1 (i8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,8 +1079,36 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +1119,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0F243E"/>
         <bgColor rgb="FF0F243E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -657,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,8 +1171,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,23 +1417,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="33.25" customWidth="1"/>
     <col min="10" max="10" width="16.625" customWidth="1"/>
@@ -1142,22 +1645,21 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1178,7 +1680,7 @@
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
@@ -1199,13 +1701,13 @@
     </row>
     <row r="12" spans="1:25" ht="16.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1220,7 +1722,7 @@
     </row>
     <row r="13" spans="1:25" ht="16.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1241,13 +1743,13 @@
     </row>
     <row r="14" spans="1:25" ht="16.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
@@ -1262,13 +1764,13 @@
     </row>
     <row r="15" spans="1:25" ht="16.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -1283,13 +1785,13 @@
     </row>
     <row r="16" spans="1:25" ht="16.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
@@ -1304,13 +1806,13 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1325,7 +1827,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
@@ -1346,7 +1848,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1367,7 +1869,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
@@ -1388,13 +1890,13 @@
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
@@ -1409,7 +1911,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>12</v>
@@ -1430,7 +1932,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
@@ -1451,19 +1953,19 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1472,7 +1974,7 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1493,7 +1995,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>12</v>
@@ -1514,7 +2016,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1535,31 +2037,31 @@
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="C28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
@@ -1577,10 +2079,10 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>13</v>
@@ -1598,10 +2100,10 @@
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>13</v>
@@ -1619,10 +2121,10 @@
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
@@ -1640,10 +2142,10 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -1661,10 +2163,10 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>13</v>
@@ -1682,10 +2184,10 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>13</v>
@@ -1703,10 +2205,10 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>13</v>
@@ -1724,10 +2226,10 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>13</v>
@@ -1745,10 +2247,10 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>13</v>
@@ -1766,10 +2268,10 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>13</v>
@@ -1787,10 +2289,10 @@
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>13</v>
@@ -1808,10 +2310,10 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>13</v>
@@ -1829,10 +2331,10 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>13</v>
@@ -1850,10 +2352,10 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>13</v>
@@ -1871,10 +2373,10 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>13</v>
@@ -1892,10 +2394,10 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>13</v>
@@ -1913,10 +2415,10 @@
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>13</v>
@@ -1934,10 +2436,10 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>13</v>
@@ -1955,10 +2457,10 @@
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>13</v>
@@ -1976,10 +2478,10 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>13</v>
@@ -1997,10 +2499,10 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>13</v>
@@ -2018,10 +2520,10 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>13</v>
@@ -2039,10 +2541,10 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>13</v>
@@ -2060,10 +2562,10 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>13</v>
@@ -2081,10 +2583,10 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>13</v>
@@ -2102,10 +2604,10 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>13</v>
@@ -2123,10 +2625,10 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>13</v>
@@ -2144,10 +2646,10 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>13</v>
@@ -2165,10 +2667,10 @@
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>13</v>
@@ -2186,10 +2688,10 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>13</v>
@@ -2207,10 +2709,10 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>13</v>
@@ -2228,10 +2730,10 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>13</v>
@@ -2249,10 +2751,10 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>13</v>
@@ -2270,10 +2772,10 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>13</v>
@@ -2291,10 +2793,10 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>13</v>
@@ -2312,10 +2814,10 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>13</v>
@@ -2333,10 +2835,10 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>13</v>
@@ -2354,10 +2856,10 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>13</v>
@@ -2375,10 +2877,10 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>13</v>
@@ -2396,10 +2898,10 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>13</v>
@@ -2417,10 +2919,10 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>13</v>
@@ -2438,10 +2940,10 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>13</v>
@@ -2459,10 +2961,10 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>13</v>
@@ -2480,10 +2982,10 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>13</v>
@@ -2501,10 +3003,10 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>13</v>
@@ -2522,10 +3024,10 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>13</v>
@@ -2543,10 +3045,10 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>13</v>
@@ -2564,10 +3066,10 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>13</v>
@@ -2585,10 +3087,10 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>13</v>
@@ -2606,10 +3108,10 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>13</v>
@@ -2627,10 +3129,10 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>13</v>
@@ -2648,10 +3150,10 @@
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>13</v>
@@ -2669,10 +3171,10 @@
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>13</v>
@@ -2690,10 +3192,10 @@
     </row>
     <row r="83" spans="1:11" ht="16.5" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>13</v>
@@ -2711,10 +3213,10 @@
     </row>
     <row r="84" spans="1:11" ht="16.5" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>13</v>
@@ -2732,10 +3234,10 @@
     </row>
     <row r="85" spans="1:11" ht="16.5" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>13</v>
@@ -2753,10 +3255,10 @@
     </row>
     <row r="86" spans="1:11" ht="16.5" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>13</v>
@@ -2774,10 +3276,10 @@
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>13</v>
@@ -2795,10 +3297,10 @@
     </row>
     <row r="88" spans="1:11" ht="16.5" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>13</v>
@@ -2816,10 +3318,10 @@
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>13</v>
@@ -2837,10 +3339,10 @@
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>13</v>
@@ -2858,10 +3360,10 @@
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>13</v>
@@ -2879,10 +3381,10 @@
     </row>
     <row r="92" spans="1:11" ht="16.5" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>13</v>
@@ -2900,10 +3402,10 @@
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>13</v>
@@ -2921,10 +3423,10 @@
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>13</v>
@@ -2942,10 +3444,10 @@
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>13</v>
@@ -2963,10 +3465,10 @@
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>13</v>
@@ -2984,10 +3486,10 @@
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>13</v>
@@ -3005,10 +3507,10 @@
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>13</v>
@@ -3026,10 +3528,10 @@
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>13</v>
@@ -3047,10 +3549,10 @@
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>13</v>
@@ -3068,10 +3570,10 @@
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>13</v>
@@ -3089,10 +3591,10 @@
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>13</v>
@@ -3110,10 +3612,10 @@
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>13</v>
@@ -3131,10 +3633,10 @@
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>13</v>
@@ -3152,10 +3654,10 @@
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>13</v>
@@ -3173,10 +3675,10 @@
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>13</v>
@@ -3194,10 +3696,10 @@
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>13</v>
@@ -3215,10 +3717,10 @@
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>13</v>
@@ -3236,10 +3738,10 @@
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1">
       <c r="A109" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>13</v>
@@ -3257,10 +3759,10 @@
     </row>
     <row r="110" spans="1:11" ht="16.5" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>13</v>
@@ -3278,10 +3780,10 @@
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>13</v>
@@ -3299,10 +3801,10 @@
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1">
       <c r="A112" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>13</v>
@@ -3320,10 +3822,10 @@
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1">
       <c r="A113" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>13</v>
@@ -3341,10 +3843,10 @@
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1">
       <c r="A114" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>13</v>
@@ -3362,10 +3864,10 @@
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1">
       <c r="A115" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>13</v>
@@ -3383,10 +3885,10 @@
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1">
       <c r="A116" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>13</v>
@@ -3404,10 +3906,10 @@
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1">
       <c r="A117" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>13</v>
@@ -3425,10 +3927,10 @@
     </row>
     <row r="118" spans="1:11" ht="16.5" customHeight="1">
       <c r="A118" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>13</v>
@@ -3446,10 +3948,10 @@
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1">
       <c r="A119" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>13</v>
@@ -3467,10 +3969,10 @@
     </row>
     <row r="120" spans="1:11" ht="16.5" customHeight="1">
       <c r="A120" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>13</v>
@@ -3488,10 +3990,10 @@
     </row>
     <row r="121" spans="1:11" ht="16.5" customHeight="1">
       <c r="A121" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>13</v>
@@ -3509,10 +4011,10 @@
     </row>
     <row r="122" spans="1:11" ht="16.5" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>13</v>
@@ -3530,10 +4032,10 @@
     </row>
     <row r="123" spans="1:11" ht="16.5" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>13</v>
@@ -3551,10 +4053,10 @@
     </row>
     <row r="124" spans="1:11" ht="16.5" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>13</v>
@@ -3572,10 +4074,10 @@
     </row>
     <row r="125" spans="1:11" ht="16.5" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>13</v>
@@ -3593,10 +4095,10 @@
     </row>
     <row r="126" spans="1:11" ht="16.5" customHeight="1">
       <c r="A126" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>13</v>
@@ -3614,10 +4116,10 @@
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1">
       <c r="A127" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>13</v>
@@ -3635,10 +4137,10 @@
     </row>
     <row r="128" spans="1:11" ht="16.5" customHeight="1">
       <c r="A128" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>13</v>
@@ -3656,10 +4158,10 @@
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>13</v>
@@ -3677,10 +4179,10 @@
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1">
       <c r="A130" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>13</v>
@@ -3698,10 +4200,10 @@
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1">
       <c r="A131" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>13</v>
@@ -3719,10 +4221,10 @@
     </row>
     <row r="132" spans="1:11" ht="16.5" customHeight="1">
       <c r="A132" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>13</v>
@@ -3740,10 +4242,10 @@
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1">
       <c r="A133" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>13</v>
@@ -3761,10 +4263,10 @@
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1">
       <c r="A134" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>13</v>
@@ -3782,10 +4284,10 @@
     </row>
     <row r="135" spans="1:11" ht="16.5" customHeight="1">
       <c r="A135" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>13</v>
@@ -3803,10 +4305,10 @@
     </row>
     <row r="136" spans="1:11" ht="16.5" customHeight="1">
       <c r="A136" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>13</v>
@@ -3824,54 +4326,52 @@
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1">
       <c r="A137" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="C137" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D137" s="7"/>
+      <c r="D137" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
-      <c r="J137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K137" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" customHeight="1">
       <c r="A138" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D138" s="7"/>
+      <c r="D138" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
-      <c r="J138" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="J138" s="8"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" customHeight="1">
       <c r="A139" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>13</v>
@@ -3889,10 +4389,10 @@
     </row>
     <row r="140" spans="1:11" ht="16.5" customHeight="1">
       <c r="A140" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>13</v>
@@ -3910,10 +4410,10 @@
     </row>
     <row r="141" spans="1:11" ht="16.5" customHeight="1">
       <c r="A141" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>13</v>
@@ -3931,13 +4431,13 @@
     </row>
     <row r="142" spans="1:11" ht="16.5" customHeight="1">
       <c r="A142" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -3952,10 +4452,10 @@
     </row>
     <row r="143" spans="1:11" ht="16.5" customHeight="1">
       <c r="A143" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>13</v>
@@ -3973,13 +4473,13 @@
     </row>
     <row r="144" spans="1:11" ht="16.5" customHeight="1">
       <c r="A144" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="C144" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
@@ -3994,10 +4494,10 @@
     </row>
     <row r="145" spans="1:11" ht="16.5" customHeight="1">
       <c r="A145" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>13</v>
@@ -4015,10 +4515,10 @@
     </row>
     <row r="146" spans="1:11" ht="16.5" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>13</v>
@@ -4036,10 +4536,10 @@
     </row>
     <row r="147" spans="1:11" ht="16.5" customHeight="1">
       <c r="A147" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>13</v>
@@ -4057,10 +4557,10 @@
     </row>
     <row r="148" spans="1:11" ht="16.5" customHeight="1">
       <c r="A148" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>13</v>
@@ -4078,10 +4578,10 @@
     </row>
     <row r="149" spans="1:11" ht="16.5" customHeight="1">
       <c r="A149" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>13</v>
@@ -12621,5 +13121,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/denom特化統整表.xlsx
+++ b/input/denom特化統整表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chiisen\min_bet.ts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0798AF5-F48F-4867-97A2-2FC42B45D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2316FC-AED7-468F-B956-8B652907FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="C137" authorId="0" shapeId="0" xr:uid="{0784E2F6-83B4-49BB-96AC-6A5CF50EE58B}">
+    <comment ref="A135" authorId="0" shapeId="0" xr:uid="{C622AC70-1052-432B-9801-E6788BDB22C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiawSam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+UAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>才有建立</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C140" authorId="0" shapeId="0" xr:uid="{0784E2F6-83B4-49BB-96AC-6A5CF50EE58B}">
       <text>
         <r>
           <rPr>
@@ -215,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J137" authorId="0" shapeId="0" xr:uid="{0055F155-246F-46A8-97CA-18C9945DA5AC}">
+    <comment ref="J140" authorId="0" shapeId="0" xr:uid="{0055F155-246F-46A8-97CA-18C9945DA5AC}">
       <text>
         <r>
           <rPr>
@@ -262,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K137" authorId="0" shapeId="0" xr:uid="{9CD224D0-3FC9-4171-8C8C-37A8DA620CE7}">
+    <comment ref="K140" authorId="0" shapeId="0" xr:uid="{9CD224D0-3FC9-4171-8C8C-37A8DA620CE7}">
       <text>
         <r>
           <rPr>
@@ -315,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C138" authorId="0" shapeId="0" xr:uid="{981CB590-F092-4098-80E4-5A49F4D6883C}">
+    <comment ref="C141" authorId="0" shapeId="0" xr:uid="{981CB590-F092-4098-80E4-5A49F4D6883C}">
       <text>
         <r>
           <rPr>
@@ -368,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J138" authorId="0" shapeId="0" xr:uid="{CA001B51-91E1-4EFE-AB11-DD79D99DB8CE}">
+    <comment ref="J141" authorId="0" shapeId="0" xr:uid="{CA001B51-91E1-4EFE-AB11-DD79D99DB8CE}">
       <text>
         <r>
           <rPr>
@@ -421,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K142" authorId="0" shapeId="0" xr:uid="{E5AE8B6C-848E-44C3-9A46-303E51170462}">
+    <comment ref="K145" authorId="0" shapeId="0" xr:uid="{E5AE8B6C-848E-44C3-9A46-303E51170462}">
       <text>
         <r>
           <rPr>
@@ -479,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="188">
   <si>
     <t>DC</t>
   </si>
@@ -947,9 +981,6 @@
     <t>SLOTCITI</t>
   </si>
   <si>
-    <t>AOA_Hall/BLUEZONE/</t>
-  </si>
-  <si>
     <t>HIBIZSOFT</t>
   </si>
   <si>
@@ -975,9 +1006,6 @@
     <t>DING</t>
   </si>
   <si>
-    <t>AOA_Hall/KJ/</t>
-  </si>
-  <si>
     <t>BOMA</t>
   </si>
   <si>
@@ -997,9 +1025,6 @@
   </si>
   <si>
     <t>YINGBO</t>
-  </si>
-  <si>
-    <t>AOA_Hall/MYKJ/</t>
   </si>
   <si>
     <t>BOSSFU</t>
@@ -1033,6 +1058,40 @@
   <si>
     <t>Normal + 預設1:1 (i8)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA_Hall/AMB_Hall/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA_Hall/BLUEZONE/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA_Hall/KJ/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA_Hall/MYKJ/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA_Hall/Leo/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOA_Hall/YANG/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPORTBOOK88</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPERGAME99</t>
+  </si>
+  <si>
+    <t>GAME1234</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1167,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,6 +1245,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1418,18 +1484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
@@ -1645,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
@@ -1665,12 +1731,11 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1748,9 +1813,6 @@
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -2064,12 +2126,11 @@
         <v>47</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2085,12 +2146,11 @@
         <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -2106,12 +2166,11 @@
         <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -2127,12 +2186,11 @@
         <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2148,12 +2206,11 @@
         <v>47</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2169,12 +2226,11 @@
         <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -2190,12 +2246,11 @@
         <v>47</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2211,12 +2266,11 @@
         <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -2232,12 +2286,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -2253,12 +2306,11 @@
         <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2274,12 +2326,11 @@
         <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -2295,12 +2346,11 @@
         <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -2316,12 +2366,11 @@
         <v>47</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2337,12 +2386,11 @@
         <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -2358,12 +2406,11 @@
         <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -2379,12 +2426,11 @@
         <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2400,12 +2446,11 @@
         <v>47</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -2421,12 +2466,11 @@
         <v>47</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -2442,12 +2486,11 @@
         <v>47</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -2463,12 +2506,11 @@
         <v>47</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2484,12 +2526,11 @@
         <v>47</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2505,12 +2546,11 @@
         <v>47</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2526,12 +2566,11 @@
         <v>47</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2547,12 +2586,11 @@
         <v>47</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -2568,12 +2606,11 @@
         <v>47</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2589,12 +2626,11 @@
         <v>47</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -2610,12 +2646,11 @@
         <v>47</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2631,12 +2666,11 @@
         <v>47</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -2652,12 +2686,11 @@
         <v>47</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
@@ -2673,12 +2706,11 @@
         <v>47</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -2694,12 +2726,11 @@
         <v>47</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -2715,12 +2746,11 @@
         <v>47</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -2736,12 +2766,11 @@
         <v>47</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -2757,12 +2786,11 @@
         <v>47</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -2778,12 +2806,11 @@
         <v>47</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -2799,12 +2826,11 @@
         <v>47</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -2820,12 +2846,11 @@
         <v>47</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -2841,12 +2866,11 @@
         <v>47</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -2862,12 +2886,11 @@
         <v>47</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -2883,12 +2906,11 @@
         <v>47</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -2904,12 +2926,11 @@
         <v>47</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -2925,12 +2946,11 @@
         <v>47</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -2946,12 +2966,11 @@
         <v>47</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
@@ -2967,12 +2986,11 @@
         <v>47</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
@@ -2988,12 +3006,11 @@
         <v>47</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
@@ -3009,12 +3026,11 @@
         <v>47</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
@@ -3030,12 +3046,11 @@
         <v>47</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -3051,12 +3066,11 @@
         <v>47</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -3072,12 +3086,11 @@
         <v>47</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -3093,12 +3106,11 @@
         <v>47</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -3114,12 +3126,11 @@
         <v>47</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -3135,12 +3146,11 @@
         <v>47</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -3156,12 +3166,11 @@
         <v>47</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -3177,12 +3186,11 @@
         <v>47</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3198,12 +3206,11 @@
         <v>47</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -3219,12 +3226,11 @@
         <v>47</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
@@ -3240,12 +3246,11 @@
         <v>47</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -3261,12 +3266,11 @@
         <v>47</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -3282,12 +3286,11 @@
         <v>47</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -3303,12 +3306,11 @@
         <v>47</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -3324,12 +3326,11 @@
         <v>47</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -3345,12 +3346,11 @@
         <v>47</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -3366,12 +3366,11 @@
         <v>47</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -3387,12 +3386,11 @@
         <v>47</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -3408,12 +3406,11 @@
         <v>47</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -3429,12 +3426,11 @@
         <v>47</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -3450,12 +3446,11 @@
         <v>47</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -3471,12 +3466,11 @@
         <v>47</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -3492,12 +3486,11 @@
         <v>47</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -3513,12 +3506,11 @@
         <v>47</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -3534,12 +3526,11 @@
         <v>47</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
@@ -3555,12 +3546,11 @@
         <v>47</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -3576,12 +3566,11 @@
         <v>47</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
@@ -3597,12 +3586,11 @@
         <v>47</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -3618,12 +3606,11 @@
         <v>47</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
@@ -3639,12 +3626,11 @@
         <v>47</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
@@ -3660,12 +3646,11 @@
         <v>47</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
@@ -3681,12 +3666,11 @@
         <v>47</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
@@ -3702,12 +3686,11 @@
         <v>47</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -3723,12 +3706,11 @@
         <v>47</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -3744,12 +3726,11 @@
         <v>47</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -3765,12 +3746,11 @@
         <v>47</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -3786,12 +3766,11 @@
         <v>47</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -3807,12 +3786,11 @@
         <v>47</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -3828,12 +3806,11 @@
         <v>47</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -3849,12 +3826,11 @@
         <v>47</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -3870,12 +3846,11 @@
         <v>47</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -3891,12 +3866,11 @@
         <v>47</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -3912,12 +3886,11 @@
         <v>47</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -3933,12 +3906,11 @@
         <v>47</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -3954,12 +3926,11 @@
         <v>47</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -3975,12 +3946,11 @@
         <v>47</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
@@ -3996,12 +3966,11 @@
         <v>47</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
@@ -4017,12 +3986,11 @@
         <v>47</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
@@ -4038,12 +4006,11 @@
         <v>47</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
@@ -4059,12 +4026,11 @@
         <v>47</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -4080,12 +4046,11 @@
         <v>47</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
@@ -4101,12 +4066,11 @@
         <v>47</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
@@ -4122,12 +4086,11 @@
         <v>47</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
@@ -4143,12 +4106,11 @@
         <v>47</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -4164,12 +4126,11 @@
         <v>47</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
@@ -4185,12 +4146,11 @@
         <v>47</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
@@ -4206,12 +4166,11 @@
         <v>47</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
@@ -4227,12 +4186,11 @@
         <v>47</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -4248,12 +4206,11 @@
         <v>47</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -4266,15 +4223,14 @@
         <v>152</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
@@ -4283,19 +4239,18 @@
       <c r="K134" s="7"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>153</v>
+      <c r="A135" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -4304,19 +4259,18 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A136" s="5" t="s">
-        <v>155</v>
+      <c r="A136" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
@@ -4325,61 +4279,58 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A137" s="5" t="s">
-        <v>157</v>
+      <c r="A137" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" customHeight="1">
       <c r="A138" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="7"/>
+        <v>180</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
-      <c r="J138" s="8"/>
+      <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" customHeight="1">
       <c r="A139" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -4389,13 +4340,13 @@
     </row>
     <row r="140" spans="1:11" ht="16.5" customHeight="1">
       <c r="A140" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>14</v>
@@ -4405,18 +4356,18 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" customHeight="1">
       <c r="A141" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>14</v>
@@ -4426,36 +4377,36 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+      <c r="J141" s="8"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D142" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
-      <c r="K142" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="K142" s="7"/>
     </row>
     <row r="143" spans="1:11" ht="16.5" customHeight="1">
       <c r="A143" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>13</v>
@@ -4473,18 +4424,18 @@
     </row>
     <row r="144" spans="1:11" ht="16.5" customHeight="1">
       <c r="A144" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -4494,31 +4445,31 @@
     </row>
     <row r="145" spans="1:11" ht="16.5" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
+      <c r="K145" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="16.5" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>13</v>
@@ -4536,18 +4487,18 @@
     </row>
     <row r="147" spans="1:11" ht="16.5" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -4557,10 +4508,10 @@
     </row>
     <row r="148" spans="1:11" ht="16.5" customHeight="1">
       <c r="A148" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>13</v>
@@ -4578,10 +4529,10 @@
     </row>
     <row r="149" spans="1:11" ht="16.5" customHeight="1">
       <c r="A149" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>13</v>
@@ -4598,34 +4549,67 @@
       <c r="K149" s="7"/>
     </row>
     <row r="150" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="7"/>
+      <c r="A150" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="7"/>
+      <c r="A151" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="7"/>
+      <c r="A152" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
     </row>
     <row r="153" spans="1:11" ht="16.5" customHeight="1">
       <c r="A153" s="5"/>
@@ -13107,14 +13091,44 @@
       <c r="G1000" s="7"/>
       <c r="H1000" s="7"/>
     </row>
+    <row r="1001" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="6"/>
+      <c r="D1001" s="7"/>
+      <c r="E1001" s="7"/>
+      <c r="F1001" s="7"/>
+      <c r="G1001" s="7"/>
+      <c r="H1001" s="7"/>
+    </row>
+    <row r="1002" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A1002" s="5"/>
+      <c r="B1002" s="5"/>
+      <c r="C1002" s="6"/>
+      <c r="D1002" s="7"/>
+      <c r="E1002" s="7"/>
+      <c r="F1002" s="7"/>
+      <c r="G1002" s="7"/>
+      <c r="H1002" s="7"/>
+    </row>
+    <row r="1003" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="5"/>
+      <c r="C1003" s="6"/>
+      <c r="D1003" s="7"/>
+      <c r="E1003" s="7"/>
+      <c r="F1003" s="7"/>
+      <c r="G1003" s="7"/>
+      <c r="H1003" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1000 D1:K1">
+  <conditionalFormatting sqref="D1:K1 C1:C13 C15:C1003">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Normal + 預設1:1 (i8)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000 D1:K1">
+  <conditionalFormatting sqref="D1:K1 C1:C13 C15:C1003">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
